--- a/Excel/Buff/BuffStateConfig.xlsx
+++ b/Excel/Buff/BuffStateConfig.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="C2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -484,7 +484,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Buff/BuffStateConfig.xlsx
+++ b/Excel/Buff/BuffStateConfig.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15975"/>
   </bookViews>
   <sheets>
-    <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
+    <sheet name="BuffState" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -70,6 +70,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -77,11 +78,13 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
